--- a/v0.1/revised_BOM.xlsx
+++ b/v0.1/revised_BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="202">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -2035,6 +2035,9 @@
     <t xml:space="preserve">1769</t>
   </si>
   <si>
+    <t xml:space="preserve">C2905019</t>
+  </si>
+  <si>
     <t xml:space="preserve">485-1769</t>
   </si>
   <si>
@@ -2180,6 +2183,15 @@
   </si>
   <si>
     <t xml:space="preserve">2073-USB4105-GF-ACT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS ANTENNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146186-0300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'538-146186-0300</t>
   </si>
   <si>
     <t xml:space="preserve">Requires Confirmation</t>
@@ -2192,7 +2204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2243,8 +2255,15 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2261,6 +2280,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -2305,7 +2330,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2343,6 +2368,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2429,8 +2466,8 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J36" activeCellId="0" sqref="J36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3052,174 +3089,176 @@
       <c r="E22" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="G22" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B26" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>75</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B27" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B28" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>75</v>
@@ -3232,66 +3271,86 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B29" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>1461860100</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="10" t="s">
-        <v>197</v>
+      <c r="E35" s="13" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
